--- a/hourly datasets/cap_gen_year11final.xlsx
+++ b/hourly datasets/cap_gen_year11final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1044631157431869</v>
+        <v>0.09872694490797113</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004052895459432643</v>
+        <v>0.001873948897131673</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002559215596654402</v>
+        <v>0.0006306285514183555</v>
       </c>
       <c r="D3" t="n">
-        <v>2.669775231989036</v>
+        <v>4.110995438647996</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1330356779351135</v>
+        <v>0.1184038137566855</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0009631711105915254</v>
+        <v>0.0006379354962354877</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009068962029456807</v>
+        <v>0.003109962298027858</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1085160112026196</v>
+        <v>0.1006008938051028</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006503746202529122</v>
+        <v>0.005686057799308876</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004205674680784492</v>
+        <v>0.0009682525710397197</v>
       </c>
       <c r="D4" t="n">
-        <v>3.010915034792896</v>
+        <v>6.003186865106415</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1119595299560974</v>
+        <v>0.08945973012288584</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.001739375229619618</v>
+        <v>0.003788311205471488</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01474686763467786</v>
+        <v>0.007583804393146265</v>
       </c>
       <c r="H4" t="n">
-        <v>0.110966861945716</v>
+        <v>0.10441300270728</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003047283358579902</v>
+        <v>0.009886247184159635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004348715386314943</v>
+        <v>0.002175142466152302</v>
       </c>
       <c r="D5" t="n">
-        <v>0.776138746164691</v>
+        <v>4.24880357461066</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1130135507518848</v>
+        <v>0.04595304614011914</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.005476190119774239</v>
+        <v>0.005623032150538674</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01157075683693404</v>
+        <v>0.01414946221778059</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1075103991017668</v>
+        <v>0.1086131920921308</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000374097732966661</v>
+        <v>0.007539458089537954</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00395671624636445</v>
+        <v>0.005183365104684434</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3893316134994055</v>
+        <v>4.332837221319683</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0807070935616178</v>
+        <v>0.1435524853106539</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.007381072103142894</v>
+        <v>-0.00261978168260754</v>
       </c>
       <c r="G6" t="n">
-        <v>0.008129267569076217</v>
+        <v>0.01769869786168345</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1048372134761536</v>
+        <v>0.1062664029975091</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001737214057964864</v>
+        <v>0.005773305760460595</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003438994413837513</v>
+        <v>0.004267657407586061</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2485597214527644</v>
+        <v>3.281201379418221</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06033655303518628</v>
+        <v>0.0652912102553153</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.005003210463640323</v>
+        <v>-0.002591174271928169</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008477638579570051</v>
+        <v>0.01413778579284936</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1062003298011518</v>
+        <v>0.1045002506684317</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002345605141334447</v>
+        <v>0.006040934523172784</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003349528365924854</v>
+        <v>0.006065986850699108</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2232184803404159</v>
+        <v>2.497158871477062</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0364914085463289</v>
+        <v>0.06981263718499831</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.004219472838109347</v>
+        <v>-0.005848224354743845</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008910683120778241</v>
+        <v>0.01793009340108942</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1068087208845214</v>
+        <v>0.1047678794311439</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0003747048225070846</v>
+        <v>-0.0003021024022884141</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002692387914498687</v>
+        <v>0.007163037238903811</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6586300667058106</v>
+        <v>0.5688405218472289</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04766822066965482</v>
+        <v>0.1218258614801366</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.005651781794549053</v>
+        <v>-0.01434144597758885</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004902372149534884</v>
+        <v>0.01373724117301202</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1040884109206798</v>
+        <v>0.09842484250568272</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1044631157431869</v>
+        <v>-0.09872694490797113</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001627896509641422</v>
+        <v>0.0004699929459654916</v>
       </c>
       <c r="D10" t="n">
-        <v>-97.07779915419172</v>
+        <v>-218.8551781173092</v>
       </c>
       <c r="E10" t="n">
-        <v>1.477194078907865e-13</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1076537940691044</v>
+        <v>-0.09964811724681735</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1012724374172695</v>
+        <v>-0.09780577256912494</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04671846665257166</v>
+        <v>-0.04351364602700453</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001725068772743178</v>
+        <v>0.0005093013262060855</v>
       </c>
       <c r="D11" t="n">
-        <v>-38.19643589922338</v>
+        <v>-87.61760913489091</v>
       </c>
       <c r="E11" t="n">
-        <v>0.005585658653357414</v>
+        <v>2.028958721782288e-298</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0500996022691361</v>
+        <v>-0.0445118616352957</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04333733103600721</v>
+        <v>-0.04251543041871338</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05774464909061527</v>
+        <v>0.05521329888096659</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03573820367140103</v>
+        <v>-0.03262303960568266</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001724942704852679</v>
+        <v>0.0005044976025524236</v>
       </c>
       <c r="D12" t="n">
-        <v>-29.68630987722975</v>
+        <v>-66.33141707700115</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0002076656930656239</v>
+        <v>8.827997858115449e-129</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03911909185805255</v>
+        <v>-0.0336118400459476</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03235731548474949</v>
+        <v>-0.03163423916541774</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0687249120717859</v>
+        <v>0.06610390530228846</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03272905799210279</v>
+        <v>-0.03019007823765087</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001713728867194321</v>
+        <v>0.0005049711993560494</v>
       </c>
       <c r="D13" t="n">
-        <v>-27.38461072045105</v>
+        <v>-60.50887777340984</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002231291344731632</v>
+        <v>4.836163972969895e-112</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03608796740401891</v>
+        <v>-0.03117980690626443</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02937014858018671</v>
+        <v>-0.02920034956903732</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07173405775108413</v>
+        <v>0.06853686667032025</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02743026849010016</v>
+        <v>-0.02444980355673535</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001679824589611836</v>
+        <v>0.0004939565215179598</v>
       </c>
       <c r="D14" t="n">
-        <v>-24.07649231273774</v>
+        <v>-50.83164043045711</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01281151419621028</v>
+        <v>9.717800205315234e-36</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03072272607597414</v>
+        <v>-0.02541794379668074</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02413781090422615</v>
+        <v>-0.02348166331678997</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07703284725308676</v>
+        <v>0.07427714135123577</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02240737618809663</v>
+        <v>-0.02052145900631555</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001665538194527084</v>
+        <v>0.0004825025512579649</v>
       </c>
       <c r="D15" t="n">
-        <v>-20.28739044586155</v>
+        <v>-44.22641112593683</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02650453058103666</v>
+        <v>0.0003585011334396438</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02567183278188692</v>
+        <v>-0.0214671498074191</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01914291959430635</v>
+        <v>-0.01957576820521201</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0820557395550903</v>
+        <v>0.07820548590165557</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02232734202223367</v>
+        <v>-0.01949243626202506</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001648800099986524</v>
+        <v>0.0004769275978823685</v>
       </c>
       <c r="D16" t="n">
-        <v>-19.89725363312046</v>
+        <v>-42.0492603604494</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01734232645669116</v>
+        <v>0.05127789995962657</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0255589918629946</v>
+        <v>-0.02042720030877247</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01909569218147274</v>
+        <v>-0.01855767221527765</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08213577372095325</v>
+        <v>0.07923450864594606</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02069907930665382</v>
+        <v>-0.0178986249898574</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001661949979643538</v>
+        <v>0.0004786324264362964</v>
       </c>
       <c r="D17" t="n">
-        <v>-18.29955153285309</v>
+        <v>-38.432181137335</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03967250521836652</v>
+        <v>0.02125239229296594</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02395650294283166</v>
+        <v>-0.01883673044234811</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01744165567047596</v>
+        <v>-0.0169605195373667</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0837640364365331</v>
+        <v>0.08082831991811372</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01951708371276997</v>
+        <v>-0.01681913356791064</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001684194665177277</v>
+        <v>0.0004884467356788915</v>
       </c>
       <c r="D18" t="n">
-        <v>-17.33236402901789</v>
+        <v>-36.18093884469873</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04590838967440904</v>
+        <v>0.002478133296051765</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02281810677177495</v>
+        <v>-0.01777647478097274</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01621606065376498</v>
+        <v>-0.01586179235484853</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08494603203041695</v>
+        <v>0.08190781134006048</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01569293018199911</v>
+        <v>-0.01327848011325406</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001672224785506673</v>
+        <v>0.0004799328953464158</v>
       </c>
       <c r="D19" t="n">
-        <v>-14.17723654966734</v>
+        <v>-29.22270978643975</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07525567914741776</v>
+        <v>1.334544890867828e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01897049252023638</v>
+        <v>-0.01421913446345442</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01241536784376184</v>
+        <v>-0.0123378257630537</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08877018556118781</v>
+        <v>0.08544846479471707</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01129663828796241</v>
+        <v>-0.009394060105720673</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001690881894068796</v>
+        <v>0.0004846535211115956</v>
       </c>
       <c r="D20" t="n">
-        <v>-10.1297755704988</v>
+        <v>-20.4724675668505</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05396257041248653</v>
+        <v>0.0005152714835697191</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01461076891091791</v>
+        <v>-0.01034396672711282</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.007982507665006905</v>
+        <v>-0.008444153484328526</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09316647745522451</v>
+        <v>0.08933288480225045</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.009441376210500162</v>
+        <v>-0.006997350542101776</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001700784713020563</v>
+        <v>0.0004883682454495837</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.154661188331255</v>
+        <v>-15.12460776949153</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05485986029982394</v>
+        <v>0.0316492805442755</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01277491599715098</v>
+        <v>-0.007954537883738609</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.006107836423849342</v>
+        <v>-0.006040163200464945</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09502173953268676</v>
+        <v>0.09172959436586935</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.007561401407124303</v>
+        <v>-0.00507197237170635</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001681261804485876</v>
+        <v>0.0004817325938945756</v>
       </c>
       <c r="D22" t="n">
-        <v>-6.549956666847692</v>
+        <v>-11.43307328946557</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08605982282586919</v>
+        <v>0.07562373728474472</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01085667604113946</v>
+        <v>-0.006016154039075219</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.004266126773109159</v>
+        <v>-0.004127790704337481</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09690171433606262</v>
+        <v>0.09365497253626477</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.006968162548102514</v>
+        <v>-0.005053488690693264</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00170207787313626</v>
+        <v>0.0004804374132996567</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.998463126054583</v>
+        <v>-11.15427575475242</v>
       </c>
       <c r="E23" t="n">
-        <v>0.09604133163175489</v>
+        <v>0.0342329302726375</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01030423638141683</v>
+        <v>-0.00599513182736355</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.003632088714788194</v>
+        <v>-0.004111845554022979</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09749495319508442</v>
+        <v>0.09367345621727786</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004972961781283616</v>
+        <v>-0.003988548144598819</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001687881854347216</v>
+        <v>0.0004768539692105781</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.384411560729738</v>
+        <v>-8.425731385120576</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09765158997031149</v>
+        <v>0.02054221608948432</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.008281211126180679</v>
+        <v>-0.004923167851578455</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.00166471243638655</v>
+        <v>-0.003053928437619182</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0994901539619033</v>
+        <v>0.09473839676337231</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002244659004342032</v>
+        <v>-0.001704809211074117</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001649527190455445</v>
+        <v>0.000469797061235487</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.573451042509788</v>
+        <v>-3.17930574399942</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1335353278877883</v>
+        <v>0.1863638740498571</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.005477732990897087</v>
+        <v>-0.002625597585477827</v>
       </c>
       <c r="G25" t="n">
-        <v>0.000988414982213022</v>
+        <v>-0.0007840208366704071</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1022184567388449</v>
+        <v>0.09702213569689701</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00537738218492205</v>
+        <v>0.008751562593373563</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001017826802756917</v>
+        <v>0.001697002157537079</v>
       </c>
       <c r="D26" t="n">
-        <v>2.270867492873082</v>
+        <v>5.246341887968151</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01313675095384547</v>
+        <v>0.08406971201847864</v>
       </c>
       <c r="F26" t="n">
-        <v>0.003382438085008123</v>
+        <v>0.005425488618347853</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007372326284835979</v>
+        <v>0.01207763656839927</v>
       </c>
       <c r="H26" t="n">
-        <v>0.109840497928109</v>
+        <v>0.1074785075013447</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year11final.xlsx
+++ b/hourly datasets/cap_gen_year11final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.09872694490797113</v>
+        <v>0.09726844845709157</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001873948897131673</v>
+        <v>0.001746831138939114</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006306285514183555</v>
+        <v>0.0006383481357919133</v>
       </c>
       <c r="D3" t="n">
-        <v>4.110995438647996</v>
+        <v>3.821138571550435</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1184038137566855</v>
+        <v>0.07250276446030157</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006379354962354877</v>
+        <v>0.0004956875613498303</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003109962298027858</v>
+        <v>0.002997974716528397</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1006008938051028</v>
+        <v>0.09901527959603068</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005686057799308876</v>
+        <v>0.003967000213525706</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009682525710397197</v>
+        <v>0.0009419131875173328</v>
       </c>
       <c r="D4" t="n">
-        <v>6.003186865106415</v>
+        <v>5.092561028148425</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08945973012288584</v>
+        <v>0.07171188323458884</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003788311205471488</v>
+        <v>0.002120877941568229</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007583804393146265</v>
+        <v>0.005813122485483182</v>
       </c>
       <c r="H4" t="n">
-        <v>0.10441300270728</v>
+        <v>0.1012354486706173</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009886247184159635</v>
+        <v>0.004101689831912349</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002175142466152302</v>
+        <v>0.002441403623541276</v>
       </c>
       <c r="D5" t="n">
-        <v>4.24880357461066</v>
+        <v>0.5926556516465759</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04595304614011914</v>
+        <v>0.06137520993411119</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005623032150538674</v>
+        <v>-0.0006833894219450479</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01414946221778059</v>
+        <v>0.008886769085769745</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1086131920921308</v>
+        <v>0.1013701382890039</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007539458089537954</v>
+        <v>-0.003704478815032923</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005183365104684434</v>
+        <v>0.006426137028674798</v>
       </c>
       <c r="D6" t="n">
-        <v>4.332837221319683</v>
+        <v>-0.408851931572141</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1435524853106539</v>
+        <v>0.08941320349610594</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.00261978168260754</v>
+        <v>-0.01629951753031344</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01769869786168345</v>
+        <v>0.008890559900247591</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1062664029975091</v>
+        <v>0.09356396964205864</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005773305760460595</v>
+        <v>0.005132801843212547</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004267657407586061</v>
+        <v>0.009554876238093124</v>
       </c>
       <c r="D7" t="n">
-        <v>3.281201379418221</v>
+        <v>0.2521778699692087</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0652912102553153</v>
+        <v>0.6623865179850682</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.002591174271928169</v>
+        <v>-0.008580555380883644</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01413778579284936</v>
+        <v>0.01198321288411884</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1045002506684317</v>
+        <v>0.1024012503003041</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.006040934523172784</v>
+        <v>0.01032824813871521</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006065986850699108</v>
+        <v>0.01525987836027738</v>
       </c>
       <c r="D8" t="n">
-        <v>2.497158871477062</v>
+        <v>-0.2588662178369779</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06981263718499831</v>
+        <v>0.1396330523366245</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.005848224354743845</v>
+        <v>-0.001964978434001202</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01793009340108942</v>
+        <v>0.02179988548236332</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1047678794311439</v>
+        <v>0.1075966965958068</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0003021024022884141</v>
+        <v>-0.00161087548631183</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007163037238903811</v>
+        <v>0.003447032630406322</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5688405218472289</v>
+        <v>-1.675435869778988</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1218258614801366</v>
+        <v>-1.124554666146178</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01434144597758885</v>
+        <v>-0.00963413839029471</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01373724117301202</v>
+        <v>0.009936115490442184</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09842484250568272</v>
+        <v>0.09565757297077973</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.09872694490797113</v>
+        <v>-0.09726844845709157</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004699929459654916</v>
+        <v>0.0004715977337833686</v>
       </c>
       <c r="D10" t="n">
-        <v>-218.8551781173092</v>
+        <v>-216.9495031421421</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09964811724681735</v>
+        <v>-0.09819276614585022</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09780577256912494</v>
+        <v>-0.09634413076833291</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04351364602700453</v>
+        <v>-0.04267210138289058</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005093013262060855</v>
+        <v>0.0005096920171593458</v>
       </c>
       <c r="D11" t="n">
-        <v>-87.61760913489091</v>
+        <v>-87.34239952294885</v>
       </c>
       <c r="E11" t="n">
-        <v>2.028958721782288e-298</v>
+        <v>3.143498713263319e-262</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0445118616352957</v>
+        <v>-0.04367108274837217</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04251543041871338</v>
+        <v>-0.04167312001740896</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05521329888096659</v>
+        <v>0.05459634707420099</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03262303960568266</v>
+        <v>-0.03177767281303898</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005044976025524236</v>
+        <v>0.0005048557398431747</v>
       </c>
       <c r="D12" t="n">
-        <v>-66.33141707700115</v>
+        <v>-65.80713408945046</v>
       </c>
       <c r="E12" t="n">
-        <v>8.827997858115449e-129</v>
+        <v>5.207687383274239e-87</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0336118400459476</v>
+        <v>-0.03276717521381919</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03163423916541774</v>
+        <v>-0.03078817041225876</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06610390530228846</v>
+        <v>0.06549077564405259</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03019007823765087</v>
+        <v>-0.0294678861164304</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005049711993560494</v>
+        <v>0.0005055872839677258</v>
       </c>
       <c r="D13" t="n">
-        <v>-60.50887777340984</v>
+        <v>-60.62610552560834</v>
       </c>
       <c r="E13" t="n">
-        <v>4.836163972969895e-112</v>
+        <v>3.292382370495597e-99</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03117980690626443</v>
+        <v>-0.03045882230931264</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02920034956903732</v>
+        <v>-0.02847694992354816</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06853686667032025</v>
+        <v>0.06780056234066116</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02444980355673535</v>
+        <v>-0.02348873765105428</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004939565215179598</v>
+        <v>0.0004966252132167454</v>
       </c>
       <c r="D14" t="n">
-        <v>-50.83164043045711</v>
+        <v>-49.86785247952994</v>
       </c>
       <c r="E14" t="n">
-        <v>9.717800205315234e-36</v>
+        <v>1.539900896693569e-41</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02541794379668074</v>
+        <v>-0.02446210846595814</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02348166331678997</v>
+        <v>-0.02251536683615041</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07427714135123577</v>
+        <v>0.07377971080603729</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02052145900631555</v>
+        <v>-0.0199149728899967</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004825025512579649</v>
+        <v>0.0004857925359528463</v>
       </c>
       <c r="D15" t="n">
-        <v>-44.22641112593683</v>
+        <v>-43.3961884204746</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0003585011334396438</v>
+        <v>2.024126380974005e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0214671498074191</v>
+        <v>-0.02086711198232478</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01957576820521201</v>
+        <v>-0.01896283379766863</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07820548590165557</v>
+        <v>0.07735347556709486</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01949243626202506</v>
+        <v>-0.01869994285469937</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004769275978823685</v>
+        <v>0.0004795763934915368</v>
       </c>
       <c r="D16" t="n">
-        <v>-42.0492603604494</v>
+        <v>-41.07633822584334</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05127789995962657</v>
+        <v>1.415864153252755e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02042720030877247</v>
+        <v>-0.01963989848267754</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01855767221527765</v>
+        <v>-0.01775998722672122</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07923450864594606</v>
+        <v>0.07856850560239219</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0178986249898574</v>
+        <v>-0.01700728594623351</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004786324264362964</v>
+        <v>0.0004804082167706023</v>
       </c>
       <c r="D17" t="n">
-        <v>-38.432181137335</v>
+        <v>-37.51576803584784</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02125239229296594</v>
+        <v>5.714296893131918e-15</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01883673044234811</v>
+        <v>-0.01794887190841661</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0169605195373667</v>
+        <v>-0.01606569998405041</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08082831991811372</v>
+        <v>0.08026116251085806</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01681913356791064</v>
+        <v>-0.01609020812112432</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004884467356788915</v>
+        <v>0.0004914003343796784</v>
       </c>
       <c r="D18" t="n">
-        <v>-36.18093884469873</v>
+        <v>-35.39620562039171</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002478133296051765</v>
+        <v>4.00401913604741e-10</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01777647478097274</v>
+        <v>-0.01705333831947705</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01586179235484853</v>
+        <v>-0.0151270779227716</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08190781134006048</v>
+        <v>0.08117824033596724</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01327848011325406</v>
+        <v>-0.01294212004257651</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004799328953464158</v>
+        <v>0.0004833309850402274</v>
       </c>
       <c r="D19" t="n">
-        <v>-29.22270978643975</v>
+        <v>-28.93368343612139</v>
       </c>
       <c r="E19" t="n">
-        <v>1.334544890867828e-05</v>
+        <v>0.005450985616930289</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01421913446345442</v>
+        <v>-0.01388943456520099</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0123378257630537</v>
+        <v>-0.01199480551995204</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08544846479471707</v>
+        <v>0.08432632841451505</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.009394060105720673</v>
+        <v>-0.009184837968053906</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004846535211115956</v>
+        <v>0.000487644532614165</v>
       </c>
       <c r="D20" t="n">
-        <v>-20.4724675668505</v>
+        <v>-20.27322693633478</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0005152714835697191</v>
+        <v>0.01698947567354194</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01034396672711282</v>
+        <v>-0.010140606900979</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.008444153484328526</v>
+        <v>-0.008229069035128815</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08933288480225045</v>
+        <v>0.08808361048903766</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.006997350542101776</v>
+        <v>-0.006642384864085044</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004883682454495837</v>
+        <v>0.000492796418869993</v>
       </c>
       <c r="D21" t="n">
-        <v>-15.12460776949153</v>
+        <v>-14.70644258724984</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0316492805442755</v>
+        <v>0.02746013679313283</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.007954537883738609</v>
+        <v>-0.007608251318964424</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.006040163200464945</v>
+        <v>-0.005676518409205669</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09172959436586935</v>
+        <v>0.09062606359300653</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.00507197237170635</v>
+        <v>-0.004774132236899909</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004817325938945756</v>
+        <v>0.000484702995403094</v>
       </c>
       <c r="D22" t="n">
-        <v>-11.43307328946557</v>
+        <v>-11.1216386477286</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07562373728474472</v>
+        <v>0.06882778834648123</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.006016154039075219</v>
+        <v>-0.005724135822754043</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.004127790704337481</v>
+        <v>-0.003824128651045776</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09365497253626477</v>
+        <v>0.09249431622019166</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005053488690693264</v>
+        <v>-0.004644936505642791</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004804374132996567</v>
+        <v>0.000482903546624301</v>
       </c>
       <c r="D23" t="n">
-        <v>-11.15427575475242</v>
+        <v>-10.7736798065489</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0342329302726375</v>
+        <v>0.03081510295503115</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.00599513182736355</v>
+        <v>-0.005591413207647661</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.004111845554022979</v>
+        <v>-0.003698459803637922</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09367345621727786</v>
+        <v>0.09262351195144877</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.003988548144598819</v>
+        <v>-0.003550921672642438</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004768539692105781</v>
+        <v>0.0004801136630966711</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.425731385120576</v>
+        <v>-8.150427115554413</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02054221608948432</v>
+        <v>0.01599157395117956</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.004923167851578455</v>
+        <v>-0.004491930299952008</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.003053928437619182</v>
+        <v>-0.002609913045332867</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09473839676337231</v>
+        <v>0.09371752678444913</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001704809211074117</v>
+        <v>-0.001374420785716679</v>
       </c>
       <c r="C25" t="n">
-        <v>0.000469797061235487</v>
+        <v>0.0004708436652591751</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.17930574399942</v>
+        <v>-2.916021515652031</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1863638740498571</v>
+        <v>0.1090450256283578</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.002625597585477827</v>
+        <v>-0.00229726048321371</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0007840208366704071</v>
+        <v>-0.0004515810882196488</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09702213569689701</v>
+        <v>0.09589402767137489</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.008751562593373563</v>
+        <v>0.003345046215803205</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001697002157537079</v>
+        <v>0.002703741737868135</v>
       </c>
       <c r="D26" t="n">
-        <v>5.246341887968151</v>
+        <v>0.4170377357574039</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08406971201847864</v>
+        <v>0.07702404749987378</v>
       </c>
       <c r="F26" t="n">
-        <v>0.005425488618347853</v>
+        <v>0.03514469995355617</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01207763656839927</v>
+        <v>0.007295375395554617</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1074785075013447</v>
+        <v>0.1006134946728948</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year11final.xlsx
+++ b/hourly datasets/cap_gen_year11final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,577 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.09726844845709157</v>
+        <v>0.1415206723057962</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001746831138939114</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0006383481357919133</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.821138571550435</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.07250276446030157</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0004956875613498303</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.002997974716528397</v>
-      </c>
+        <v>0.09878309884582946</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.09901527959603068</v>
+        <v>0.2403037711516256</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003967000213525706</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0009419131875173328</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.092561028148425</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.07171188323458884</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.002120877941568229</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.005813122485483182</v>
-      </c>
+        <v>0.07950742807365907</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1012354486706173</v>
+        <v>0.2210281003794552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004101689831912349</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.002441403623541276</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5926556516465759</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.06137520993411119</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.0006833894219450479</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.008886769085769745</v>
-      </c>
+        <v>0.08462674291461619</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1013701382890039</v>
+        <v>0.2261474152204123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.003704478815032923</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.006426137028674798</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.408851931572141</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.08941320349610594</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.01629951753031344</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.008890559900247591</v>
-      </c>
+        <v>0.08183805149172904</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.09356396964205864</v>
+        <v>0.2233587237975252</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005132801843212547</v>
+        <v>0.08094995494382935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009554876238093124</v>
+        <v>0.005234916089435242</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2521778699692087</v>
+        <v>5.676001782459989</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6623865179850682</v>
+        <v>0.005090542394334546</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.008580555380883644</v>
+        <v>0.07068567385672858</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01198321288411884</v>
+        <v>0.09121423603092799</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1024012503003041</v>
+        <v>0.2224706272496255</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01032824813871521</v>
+        <v>0.004093531627616338</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01525987836027738</v>
+        <v>0.0005185101308292631</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2588662178369779</v>
+        <v>0.7237293103291861</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1396330523366245</v>
+        <v>0.003107126944000329</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001964978434001202</v>
+        <v>0.003075580373810781</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02179988548236332</v>
+        <v>0.005111482881421893</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1075966965958068</v>
+        <v>0.1456142039334125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.00161087548631183</v>
+        <v>0.005316262970320603</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003447032630406322</v>
+        <v>0.0007246060213463263</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.675435869778988</v>
+        <v>0.555790480712443</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.124554666146178</v>
+        <v>0.003272115803256617</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.00963413839029471</v>
+        <v>0.003894410682533234</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009936115490442184</v>
+        <v>0.006738115258107896</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09565757297077973</v>
+        <v>0.1468369352761167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.09726844845709157</v>
+        <v>0.005126218787263032</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004715977337833686</v>
+        <v>0.0005618360257394937</v>
       </c>
       <c r="D10" t="n">
-        <v>-216.9495031421421</v>
+        <v>0.4639460538792889</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.003264491268841842</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09819276614585022</v>
+        <v>0.004024669037809766</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09634413076833291</v>
+        <v>0.006227768536716131</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1466468910930592</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04267210138289058</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005096920171593458</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-87.34239952294885</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.143498713263319e-262</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.04367108274837217</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04167312001740896</v>
-      </c>
+        <v>0.03020532257594928</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.05459634707420099</v>
+        <v>0.1717259948817454</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03177767281303898</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005048557398431747</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-65.80713408945046</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.207687383274239e-87</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.03276717521381919</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.03078817041225876</v>
-      </c>
+        <v>0.05036997112368459</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.06549077564405259</v>
+        <v>0.1918906434294808</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0294678861164304</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005055872839677258</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-60.62610552560834</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.292382370495597e-99</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.03045882230931264</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.02847694992354816</v>
-      </c>
+        <v>0.06165816868567248</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.06780056234066116</v>
+        <v>0.2031788409914686</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02348873765105428</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0004966252132167454</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-49.86785247952994</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.539900896693569e-41</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.02446210846595814</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.02251536683615041</v>
-      </c>
+        <v>0.07195886054304468</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.07377971080603729</v>
+        <v>0.2134795328488408</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0199149728899967</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0004857925359528463</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-43.3961884204746</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.024126380974005e-07</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02086711198232478</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.01896283379766863</v>
-      </c>
+        <v>0.07816321738825825</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.07735347556709486</v>
+        <v>0.2196838896940544</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01869994285469937</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0004795763934915368</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-41.07633822584334</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.415864153252755e-13</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.01963989848267754</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.01775998722672122</v>
-      </c>
+        <v>0.08023999677675274</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.07856850560239219</v>
+        <v>0.2217606690825489</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01700728594623351</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0004804082167706023</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-37.51576803584784</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5.714296893131918e-15</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.01794887190841661</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.01606569998405041</v>
-      </c>
+        <v>0.0818899238448219</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.08026116251085806</v>
+        <v>0.223410596150618</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01609020812112432</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0004914003343796784</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-35.39620562039171</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4.00401913604741e-10</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.01705333831947705</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.0151270779227716</v>
-      </c>
+        <v>-0.1415206723057962</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.08117824033596724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01294212004257651</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0004833309850402274</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-28.93368343612139</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.005450985616930289</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01388943456520099</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01199480551995204</v>
-      </c>
+        <v>0.08411574989344825</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.08432632841451505</v>
+        <v>0.2256364221992444</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.009184837968053906</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.000487644532614165</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-20.27322693633478</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.01698947567354194</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.010140606900979</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.008229069035128815</v>
-      </c>
+        <v>0.08831625309591593</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.08808361048903766</v>
+        <v>0.2298369254017121</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.006642384864085044</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.000492796418869993</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-14.70644258724984</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.02746013679313283</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.007608251318964424</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.005676518409205669</v>
-      </c>
+        <v>0.08990255079156542</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.09062606359300653</v>
+        <v>0.2314232230973616</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.004774132236899909</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.000484702995403094</v>
+        <v>0.09481852199511491</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="D22" t="n">
-        <v>-11.1216386477286</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.06882778834648123</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.005724135822754043</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.003824128651045776</v>
-      </c>
+        <v>1203235530807.514</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.09249431622019166</v>
+        <v>0.236339194300911</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004644936505642791</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.000482903546624301</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-10.7736798065489</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.03081510295503115</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.005591413207647661</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.003698459803637922</v>
-      </c>
+        <v>0.0968274821843035</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.09262351195144877</v>
+        <v>0.2383481544900997</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.003550921672642438</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0004801136630966711</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-8.150427115554413</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.01599157395117956</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.004491930299952008</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.002609913045332867</v>
-      </c>
+        <v>0.1001626373220657</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.09371752678444913</v>
+        <v>0.2416833096278619</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001374420785716679</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0004708436652591751</v>
+        <v>0.1006117816243175</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="D25" t="n">
-        <v>-2.916021515652031</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.1090450256283578</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.00229726048321371</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.0004515810882196488</v>
-      </c>
+        <v>1102980393773.567</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.09589402767137489</v>
+        <v>0.2421324539301136</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1014514212772698</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>114715829627.973</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0.242972093583066</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1059313557376659</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>26281958940.66151</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0.2474520280434621</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1049844809592649</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.007630084155663758</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1381769165350.217</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.08760171520559851</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.08999681590269155</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1199721460158385</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.246505153265061</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.003345046215803205</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.002703741737868135</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.4170377357574039</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.07702404749987378</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.03514469995355617</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.007295375395554617</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1006134946728948</v>
+      <c r="B29" t="n">
+        <v>0.005274468048083805</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0005024129302156071</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7850930158287986</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.003718381972666835</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.004289145506595459</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.006259790589572174</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.14679514035388</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year11final.xlsx
+++ b/hourly datasets/cap_gen_year11final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1415206723057962</v>
+        <v>0.1095408508766886</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09878309884582946</v>
+        <v>0.09923718903447988</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2403037711516256</v>
+        <v>0.2087780399111685</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07950742807365907</v>
+        <v>0.08293037643502431</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2210281003794552</v>
+        <v>0.1924712273117129</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08462674291461619</v>
+        <v>0.08664581060446666</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -544,7 +544,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.2261474152204123</v>
+        <v>0.1961866614811553</v>
       </c>
     </row>
     <row r="6">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08183805149172904</v>
+        <v>0.08809867114853734</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -562,7 +562,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.2233587237975252</v>
+        <v>0.1976395220252259</v>
       </c>
     </row>
     <row r="7">
@@ -572,25 +572,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08094995494382935</v>
+        <v>0.08783588393753544</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005234916089435242</v>
+        <v>0.006160670765040378</v>
       </c>
       <c r="D7" t="n">
-        <v>5.676001782459989</v>
+        <v>5.923068308793769</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005090542394334546</v>
+        <v>0.01595706240556712</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07068567385672858</v>
+        <v>0.07575650494330734</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09121423603092799</v>
+        <v>0.09991526293176362</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2224706272496255</v>
+        <v>0.1973767348142241</v>
       </c>
     </row>
     <row r="8">
@@ -600,25 +600,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.004093531627616338</v>
+        <v>0.0157241038097211</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005185101308292631</v>
+        <v>0.001721439986165525</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7237293103291861</v>
+        <v>1.250819828511136</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003107126944000329</v>
+        <v>0.01094147031537767</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003075580373810781</v>
+        <v>0.01234771130724778</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005111482881421893</v>
+        <v>0.01910049631219455</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1456142039334125</v>
+        <v>0.1252649546864097</v>
       </c>
     </row>
     <row r="9">
@@ -628,25 +628,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005316262970320603</v>
+        <v>0.01208892776099924</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007246060213463263</v>
+        <v>0.001840075054147123</v>
       </c>
       <c r="D9" t="n">
-        <v>0.555790480712443</v>
+        <v>0.87551099422637</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003272115803256617</v>
+        <v>0.009477498262888963</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003894410682533234</v>
+        <v>0.008479945585292482</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006738115258107896</v>
+        <v>0.01569790993670598</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1468369352761167</v>
+        <v>0.1216297786376879</v>
       </c>
     </row>
     <row r="10">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.005126218787263032</v>
+        <v>0.01380883928723627</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005618360257394937</v>
+        <v>0.001659177192505468</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4639460538792889</v>
+        <v>0.8671545001381232</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003264491268841842</v>
+        <v>0.01561553626919321</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004024669037809766</v>
+        <v>0.01055572963197893</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006227768536716131</v>
+        <v>0.01706194894249302</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1466468910930592</v>
+        <v>0.1233496901639249</v>
       </c>
     </row>
     <row r="11">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03020532257594928</v>
+        <v>0.03167191081166314</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -692,7 +692,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1717259948817454</v>
+        <v>0.1412127616883518</v>
       </c>
     </row>
     <row r="12">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05036997112368459</v>
+        <v>0.05210666110496477</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -710,7 +710,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1918906434294808</v>
+        <v>0.1616475119816534</v>
       </c>
     </row>
     <row r="13">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06165816868567248</v>
+        <v>0.06291557863752552</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -728,7 +728,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2031788409914686</v>
+        <v>0.1724564295142141</v>
       </c>
     </row>
     <row r="14">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07195886054304468</v>
+        <v>0.07365463933776871</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -746,7 +746,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2134795328488408</v>
+        <v>0.1831954902144573</v>
       </c>
     </row>
     <row r="15">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07816321738825825</v>
+        <v>0.07972835105340612</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -764,7 +764,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2196838896940544</v>
+        <v>0.1892692019300947</v>
       </c>
     </row>
     <row r="16">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08023999677675274</v>
+        <v>0.08101929742172134</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2217606690825489</v>
+        <v>0.1905601482984099</v>
       </c>
     </row>
     <row r="17">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0818899238448219</v>
+        <v>0.08334608047783983</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -800,7 +800,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.223410596150618</v>
+        <v>0.1928869313545284</v>
       </c>
     </row>
     <row r="18">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1415206723057962</v>
+        <v>-0.1095408508766886</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08411574989344825</v>
+        <v>0.08588987266372432</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -836,7 +836,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2256364221992444</v>
+        <v>0.1954307235404129</v>
       </c>
     </row>
     <row r="20">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08831625309591593</v>
+        <v>0.08952242401224325</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -854,7 +854,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.2298369254017121</v>
+        <v>0.1990632748889319</v>
       </c>
     </row>
     <row r="21">
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08990255079156542</v>
+        <v>0.09089316000939306</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -872,7 +872,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.2314232230973616</v>
+        <v>0.2004340108860817</v>
       </c>
     </row>
     <row r="22">
@@ -882,21 +882,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.09481852199511491</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.09475971894242061</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.007620871415397229</v>
       </c>
       <c r="D22" t="n">
-        <v>1203235530807.514</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+        <v>1009979561198.836</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.04347295510024996</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.07975882774137004</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1097606101434712</v>
+      </c>
       <c r="H22" t="n">
-        <v>0.236339194300911</v>
+        <v>0.2043005698191092</v>
       </c>
     </row>
     <row r="23">
@@ -906,7 +910,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0968274821843035</v>
+        <v>0.09704936308425112</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -914,7 +918,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.2383481544900997</v>
+        <v>0.2065902139609397</v>
       </c>
     </row>
     <row r="24">
@@ -924,15 +928,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1001626373220657</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+        <v>0.1001725386056939</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.007814031344815753</v>
+      </c>
+      <c r="D24" t="n">
+        <v>996697712547.6837</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.05782375755067647</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.08481222431341105</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1155328528979767</v>
+      </c>
       <c r="H24" t="n">
-        <v>0.2416833096278619</v>
+        <v>0.2097133894823825</v>
       </c>
     </row>
     <row r="25">
@@ -942,21 +956,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1006117816243175</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1021566949567594</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.007892856342740262</v>
       </c>
       <c r="D25" t="n">
-        <v>1102980393773.567</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>603442959324.0503</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.05376238981176969</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.08662495127093868</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1176884386425802</v>
+      </c>
       <c r="H25" t="n">
-        <v>0.2421324539301136</v>
+        <v>0.2116975458334481</v>
       </c>
     </row>
     <row r="26">
@@ -966,21 +984,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1014514212772698</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1012313291632006</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.008015375722886199</v>
       </c>
       <c r="D26" t="n">
-        <v>114715829627.973</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>22.82675888221823</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.05990244578407614</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.08547361794743422</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.116989040378967</v>
+      </c>
       <c r="H26" t="n">
-        <v>0.242972093583066</v>
+        <v>0.2107721800398892</v>
       </c>
     </row>
     <row r="27">
@@ -990,21 +1012,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1059313557376659</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1076876494503328</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.008049226972368427</v>
       </c>
       <c r="D27" t="n">
-        <v>26281958940.66151</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>22.76106326311974</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.06557252171094248</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.09185393207197737</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1235213668286879</v>
+      </c>
       <c r="H27" t="n">
-        <v>0.2474520280434621</v>
+        <v>0.2172285003270214</v>
       </c>
     </row>
     <row r="28">
@@ -1014,25 +1040,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1049844809592649</v>
+        <v>0.1076451618059842</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007630084155663758</v>
+        <v>0.008220632994280091</v>
       </c>
       <c r="D28" t="n">
-        <v>1381769165350.217</v>
+        <v>951876673633.943</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08760171520559851</v>
+        <v>0.09908224531215967</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08999681590269155</v>
+        <v>0.09149338219573487</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1199721460158385</v>
+        <v>0.1237969414162337</v>
       </c>
       <c r="H28" t="n">
-        <v>0.246505153265061</v>
+        <v>0.2171860126826728</v>
       </c>
     </row>
     <row r="29">
@@ -1042,25 +1068,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.005274468048083805</v>
+        <v>0.0177844887245429</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0005024129302156071</v>
+        <v>0.001713823760253659</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7850930158287986</v>
+        <v>1.717639576708349</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003718381972666835</v>
+        <v>0.0102958081672072</v>
       </c>
       <c r="F29" t="n">
-        <v>0.004289145506595459</v>
+        <v>0.01438747950771367</v>
       </c>
       <c r="G29" t="n">
-        <v>0.006259790589572174</v>
+        <v>0.02118149794137169</v>
       </c>
       <c r="H29" t="n">
-        <v>0.14679514035388</v>
+        <v>0.1273253396012315</v>
       </c>
     </row>
   </sheetData>
